--- a/ValueSet-VSTipoCodDiagnostica.xlsx
+++ b/ValueSet-VSTipoCodDiagnostica.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/ValueSet-VSTipoCodDiagnostica.xlsx
+++ b/ValueSet-VSTipoCodDiagnostica.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/ValueSet-VSTipoCodDiagnostica.xlsx
+++ b/ValueSet-VSTipoCodDiagnostica.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/ValueSet-VSTipoCodDiagnostica.xlsx
+++ b/ValueSet-VSTipoCodDiagnostica.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/ValueSet-VSTipoCodDiagnostica.xlsx
+++ b/ValueSet-VSTipoCodDiagnostica.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ValueSet-VSTipoCodDiagnostica.xlsx
+++ b/ValueSet-VSTipoCodDiagnostica.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
